--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCE5C4E-434F-4CC4-AE1E-2F73ADB05AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B7FDE3-72A0-4D93-8A96-AF953DCCA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128C8000-C1E4-40B1-8CEB-5EA6C0295D64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -111,23 +111,60 @@
     <t>Présidente de AC @MR , Vice Présidente @MR Ganshoren , Conseillère communale de Ganshoren</t>
   </si>
   <si>
-    <t xml:space="preserve">Élue locale à Anderlecht, néo-libérale, présente à des évents du MR </t>
-  </si>
-  <si>
     <t>Daniel Rodenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Membre de l'Institut Jonathas (qui a host une conf avec Nora Bussigny), sionniste 
+    <t>https://archives.uclouvain.be/histoire-medecine/files/fullsize/a813a12df52949ffdc14a05d80eee2d1.jpg</t>
+  </si>
+  <si>
+    <t>Coauteur</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membre de l'Institut Jonathas
 </t>
   </si>
   <si>
-    <t>https://archives.uclouvain.be/histoire-medecine/files/fullsize/a813a12df52949ffdc14a05d80eee2d1.jpg</t>
-  </si>
-  <si>
-    <t>Coauteur</t>
-  </si>
-  <si>
-    <t>Ami</t>
+    <t>Élue locale à Anderlecht, néo-libérale</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Cristt</t>
+  </si>
+  <si>
+    <t>Bruxelles</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Firch</t>
+  </si>
+  <si>
+    <t>Article_ID</t>
+  </si>
+  <si>
+    <t>Article_Debunk_ID</t>
+  </si>
+  <si>
+    <t>https://www.arretsurimages.net/articles/marie-estelle-dupont-psycho-couacs-a-droite-toute</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/progressisme-et-deconstruction-les-racines-ideologiques-du-mal-etre-contemporain/</t>
+  </si>
+  <si>
+    <t>Progressisme et deconstructrion</t>
+  </si>
+  <si>
+    <t>Nininiin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momomo
+</t>
   </si>
 </sst>
 </file>
@@ -172,9 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -510,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D40534-737A-47C0-885C-4169F085AAC6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -600,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -609,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,9 +658,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -639,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17772F1A-6616-41C0-B30F-8368871171F9}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,9 +754,50 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{09DA3A49-FE9A-46D6-BD8F-017CDC231FD3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -678,7 +806,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -730,13 +858,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2AA4-318C-40ED-B84F-452F0D926851}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8C451636-26B8-4567-AB5B-BCFB8591DB63}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B7FDE3-72A0-4D93-8A96-AF953DCCA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EF8C2-8E9F-401C-A58C-7B8AB9999167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{128C8000-C1E4-40B1-8CEB-5EA6C0295D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{128C8000-C1E4-40B1-8CEB-5EA6C0295D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Personnes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Opinion</t>
   </si>
   <si>
-    <t>Lucas Ablotia</t>
-  </si>
-  <si>
-    <t>Sionniste, lien avec Belgian Friends of Israel, islamophobe, pro-Trump</t>
-  </si>
-  <si>
     <t>Marcela Gori</t>
   </si>
   <si>
@@ -115,56 +109,110 @@
   </si>
   <si>
     <t>https://archives.uclouvain.be/histoire-medecine/files/fullsize/a813a12df52949ffdc14a05d80eee2d1.jpg</t>
-  </si>
-  <si>
-    <t>Coauteur</t>
-  </si>
-  <si>
-    <t>Ami</t>
   </si>
   <si>
     <t xml:space="preserve">Membre de l'Institut Jonathas
 </t>
   </si>
   <si>
-    <t>Élue locale à Anderlecht, néo-libérale</t>
-  </si>
-  <si>
-    <t>Michel</t>
-  </si>
-  <si>
-    <t>Cristt</t>
-  </si>
-  <si>
     <t>Bruxelles</t>
   </si>
   <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Firch</t>
-  </si>
-  <si>
     <t>Article_ID</t>
   </si>
   <si>
     <t>Article_Debunk_ID</t>
   </si>
   <si>
-    <t>https://www.arretsurimages.net/articles/marie-estelle-dupont-psycho-couacs-a-droite-toute</t>
-  </si>
-  <si>
     <t>https://www.21news.be/progressisme-et-deconstruction-les-racines-ideologiques-du-mal-etre-contemporain/</t>
   </si>
   <si>
     <t>Progressisme et deconstructrion</t>
   </si>
   <si>
-    <t>Nininiin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momomo
+    <t xml:space="preserve">Précision </t>
+  </si>
+  <si>
+    <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fspgeng.rosselcdn.net%2Fsites%2Fdefault%2Ffiles%2Fdpistyles_v2%2Fsp_664w%2F2024%2F11%2F04%2Fnode_909398%2F56011785%2Fpublic%2F2024%2F11%2F04%2F28954395.jpeg%3Fitok%3DGpdj9j4M1730755677&amp;f=1&amp;nofb=1&amp;ipt=d2c998c381c38d5dae7bbfc2a735986503af41ff1e5130752ddc0c170d6632d7</t>
+  </si>
+  <si>
+    <t>Élue MR à Anderlecht, néo-libérale</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Harisson du Bus</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/wp-content/uploads/2026/01/cropped-Harrison-du-Bus-100x100.jpg</t>
+  </si>
+  <si>
+    <t>Journaliste</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/simon-schama-met-en-garde-contre-lusage-du-mot-genocide-dans-le-debat-sur-israel/</t>
+  </si>
+  <si>
+    <t>Simon Schama met en garde contre l’usage du mot « génocide » dans le débat sur Israël</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/dans-les-facultes-belges-le-droit-international-face-au-retour-brutal-du-reel/</t>
+  </si>
+  <si>
+    <t>Dans les facultés belges, le droit international face au retour brutal du réel</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/la-metamorphose-de-la-palestine-opinion/</t>
+  </si>
+  <si>
+    <t>La métamorphose de la Palestine (opinion)</t>
+  </si>
+  <si>
+    <t>La différence entre Unia et Unia : deux poids deux mesures (Carte blanche)</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/la-difference-entre-unia-et-unia-deux-poids-deux-mesures-carte-blanche/</t>
+  </si>
+  <si>
+    <t>Demetrio Scagliola</t>
+  </si>
+  <si>
+    <t>https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/420391281_10161611238815742_5085160447608714690_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=KiVsGBMwCb8Q7kNvwGu-y6P&amp;_nc_oc=AdmLGKrfitVFybsh7mtvIL1eiVUcmADKvRos_1B45PQmFmSbn4CTAMKs5vdIIDQXdDI&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=HEEMiDw4-KHQhp_lwvWwpA&amp;oh=00_AfoebfEwTCFR83oo3rHihgYJnaLvhD9ceFIXjZBCPORRxg&amp;oe=698108BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journaliste, auteur du livre "Poussière de cristal – Honni soit qui mal y pense" où il est question de la décadence de la France et de l'Europe. 
 </t>
+  </si>
+  <si>
+    <t>Journaliste indépendant, chroniqueur RTBF (Vivacité, La Une), ex-rédacteur en chef Sudinfo, 7dimanche</t>
+  </si>
+  <si>
+    <t>David Weytsman (MR) : « On a commencé à remettre de l’ordre, du beau et du travail à la ville de Bruxelles »</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/david-weytsman-mr-on-a-commence-a-remettre-de-lordre-du-beau-et-du-travail-a-la-ville-de-bruxelles/</t>
+  </si>
+  <si>
+    <t>Membre du Mouvement Réformateur à Bruxelles</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>La rédaction a interviewé Amirkhizy</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/melissa-amirkhizy-je-suis-epuisee-detre-enfermee-dans-des-cases/</t>
+  </si>
+  <si>
+    <t>Mélissa Amirkhizy : « Je suis épuisée d’être enfermée dans des cases »</t>
+  </si>
+  <si>
+    <t>https://www.21news.be/victoire-ou-defaite-le-meme-rituel-de-violences-apres-la-finale-de-la-can-nouvelle-nuit-agitee-a-molenbeek/</t>
+  </si>
+  <si>
+    <t>Victoire ou défaite, le même rituel de violences : après la finale de la CAN, nouvelle nuit agitée à Molenbeek</t>
   </si>
 </sst>
 </file>
@@ -209,9 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -550,8 +599,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D40534-737A-47C0-885C-4169F085AAC6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/613195471_24638308565845107_842769831722255804_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=TXZiSd32NvoQ7kNvwEsWOAh&amp;_nc_oc=AdmhzNKN9FTGkvHRgT1KdhlVpWbeRQx-sZsPDGhxL99bAlUeWXLXhvrcMRL6N_-bLfM&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=tVQO7waff5dCc65OiEYW_A&amp;oh=00_AfqYaOgfIvgKMOAHkocGIT5GA5fYroE7z8RThkUMfzpQhA&amp;oe=6976B443" xr:uid="{0E3F35C4-029F-4EA4-B085-DB8A00FB85CE}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/527713122_24156027730685525_1543359397804974350_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=i2HYOpvhJVAQ7kNvwFrLIGj&amp;_nc_oc=AdnTXnYlLfk0dV9tcDBcT9WCpj3hN_rdNNaNsK8lTYUdOj96ZdxbXb9iu46qj2Vi4R8&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=Io1KHGe8e1HECd4zwAmqRg&amp;oh=00_AfoP_qGc-lQ27gaEgiiY5fcPWCYobaFcNCYUuOHOR0arzA&amp;oe=6976DCED" xr:uid="{4912695D-9BEF-43F5-BD21-E655D76D21A1}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{C2977129-2CA5-4278-B805-F275E1D07A0D}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fspgeng.rosselcdn.net%2Fsites%2Fdefault%2Ffiles%2Fdpistyles_v2%2Fsp_664w%2F2024%2F11%2F04%2Fnode_909398%2F56011785%2Fpublic%2F2024%2F11%2F04%2F28954395.jpeg%3Fitok%3DGpdj9j4M1730755677&amp;f=1&amp;nofb=1&amp;ipt=d2c998c381c38d5dae7bbfc2a735986503af41ff1e5130752ddc0c170d6632d7" xr:uid="{BD7092FC-0D18-4671-87F8-8382D90631AE}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{E02298AA-71A9-4FA3-A35F-D11A2E55C7EE}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/420391281_10161611238815742_5085160447608714690_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=KiVsGBMwCb8Q7kNvwGu-y6P&amp;_nc_oc=AdmLGKrfitVFybsh7mtvIL1eiVUcmADKvRos_1B45PQmFmSbn4CTAMKs5vdIIDQXdDI&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=HEEMiDw4-KHQhp_lwvWwpA&amp;oh=00_AfoebfEwTCFR83oo3rHihgYJnaLvhD9ceFIXjZBCPORRxg&amp;oe=698108BB" xr:uid="{FCF6D32F-8CA8-4485-9C68-C0B1DDFEC92B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17772F1A-6616-41C0-B30F-8368871171F9}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45605</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,19 +834,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46027</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,19 +851,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46050</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,19 +868,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46031</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,15 +885,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45963</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -675,129 +902,65 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46041</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>46357</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/613195471_24638308565845107_842769831722255804_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=TXZiSd32NvoQ7kNvwEsWOAh&amp;_nc_oc=AdmhzNKN9FTGkvHRgT1KdhlVpWbeRQx-sZsPDGhxL99bAlUeWXLXhvrcMRL6N_-bLfM&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=tVQO7waff5dCc65OiEYW_A&amp;oh=00_AfqYaOgfIvgKMOAHkocGIT5GA5fYroE7z8RThkUMfzpQhA&amp;oe=6976B443" xr:uid="{0E3F35C4-029F-4EA4-B085-DB8A00FB85CE}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://scontent-bru2-1.xx.fbcdn.net/v/t39.30808-6/527713122_24156027730685525_1543359397804974350_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=i2HYOpvhJVAQ7kNvwFrLIGj&amp;_nc_oc=AdnTXnYlLfk0dV9tcDBcT9WCpj3hN_rdNNaNsK8lTYUdOj96ZdxbXb9iu46qj2Vi4R8&amp;_nc_zt=23&amp;_nc_ht=scontent-bru2-1.xx&amp;_nc_gid=Io1KHGe8e1HECd4zwAmqRg&amp;oh=00_AfoP_qGc-lQ27gaEgiiY5fcPWCYobaFcNCYUuOHOR0arzA&amp;oe=6976DCED" xr:uid="{4912695D-9BEF-43F5-BD21-E655D76D21A1}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{C2977129-2CA5-4278-B805-F275E1D07A0D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17772F1A-6616-41C0-B30F-8368871171F9}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="D9" s="2">
+        <v>46041</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{09DA3A49-FE9A-46D6-BD8F-017CDC231FD3}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{3C389EC3-8D72-44FB-8EC7-E206A9B06738}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{C5A1394B-B4DC-4ADC-97B6-59B97E982174}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{D261B491-F338-4F2D-87F2-928376531822}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{BE565002-8C1F-48E4-B376-8A9B740D699F}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{BA41C23F-259F-4807-9D30-4FD8CA0A5009}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{D36FEB0B-C0F8-4B23-AFE3-E757EF25C47F}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{91F64422-EE75-4223-B410-F0EBF26793C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -805,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42228DDD-18B6-425D-8112-5623FD98DDCA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,24 +993,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -861,17 +1030,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -885,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +1079,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8C451636-26B8-4567-AB5B-BCFB8591DB63}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.arretsurimages.net/articles/marie-estelle-dupont-psycho-couacs-a-droite-toute" xr:uid="{8C451636-26B8-4567-AB5B-BCFB8591DB63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EF8C2-8E9F-401C-A58C-7B8AB9999167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDFD97A-F908-4E84-9BD7-2A6C91827C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{128C8000-C1E4-40B1-8CEB-5EA6C0295D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{128C8000-C1E4-40B1-8CEB-5EA6C0295D64}"/>
   </bookViews>
   <sheets>
     <sheet name="Personnes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -124,13 +124,13 @@
     <t>Article_Debunk_ID</t>
   </si>
   <si>
+    <t>https://www.arretsurimages.net/articles/marie-estelle-dupont-psycho-couacs-a-droite-toute</t>
+  </si>
+  <si>
     <t>https://www.21news.be/progressisme-et-deconstruction-les-racines-ideologiques-du-mal-etre-contemporain/</t>
   </si>
   <si>
     <t>Progressisme et deconstructrion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Précision </t>
   </si>
   <si>
     <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fspgeng.rosselcdn.net%2Fsites%2Fdefault%2Ffiles%2Fdpistyles_v2%2Fsp_664w%2F2024%2F11%2F04%2Fnode_909398%2F56011785%2Fpublic%2F2024%2F11%2F04%2F28954395.jpeg%3Fitok%3DGpdj9j4M1730755677&amp;f=1&amp;nofb=1&amp;ipt=d2c998c381c38d5dae7bbfc2a735986503af41ff1e5130752ddc0c170d6632d7</t>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Victoire ou défaite, le même rituel de violences : après la finale de la CAN, nouvelle nuit agitée à Molenbeek</t>
+  </si>
+  <si>
+    <t>Marie-Estelle Dupont : psycho couacs à droite toute</t>
+  </si>
+  <si>
+    <t>Précision</t>
   </si>
 </sst>
 </file>
@@ -784,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17772F1A-6616-41C0-B30F-8368871171F9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -843,7 +849,7 @@
         <v>46027</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,6 +952,17 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -958,9 +975,10 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{BA41C23F-259F-4807-9D30-4FD8CA0A5009}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{D36FEB0B-C0F8-4B23-AFE3-E757EF25C47F}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{91F64422-EE75-4223-B410-F0EBF26793C0}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{D7098D57-F2DE-4664-BCDD-9D6C0E210C99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -968,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42228DDD-18B6-425D-8112-5623FD98DDCA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1029,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2AA4-318C-40ED-B84F-452F0D926851}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
